--- a/Main Assesment/Abs vs CV.xlsx
+++ b/Main Assesment/Abs vs CV.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonporteus/Documents/GitHub/ssb_s5/Main Assesment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7972B20D-76AB-AB46-BB3D-80B9A7401FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E1287-C13D-5143-9AE4-3A0F150AD5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{8ABBAA66-71AC-EE47-A595-CCEE4EC1B8B9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8ABBAA66-71AC-EE47-A595-CCEE4EC1B8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$16</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Pb CV</t>
   </si>
@@ -48,6 +52,12 @@
   </si>
   <si>
     <t>Bb Grad</t>
+  </si>
+  <si>
+    <t>BB CV^2</t>
+  </si>
+  <si>
+    <t>Pb CV^2</t>
   </si>
 </sst>
 </file>
@@ -107,6 +117,4110 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.79635461938830854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89851144010307771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79185293510825716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97310795744788225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98027915347934713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98579888511130875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98428433240934399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92858152191349219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8592412801765601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98455845801861741</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86038503006814571</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95459128233903079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.1758525154025499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6127135551204801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28.247844011484698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15.299875133051099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.602424263510001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5443093585162999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.70675040956999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0460737268525104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.1377098105644006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-17.9522422755694</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5593597243535999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.3809588506282404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B903-F04F-93A5-A06DEEC154BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1377546799"/>
+        <c:axId val="1377295823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1377546799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377295823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1377295823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377546799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BB Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.49941994904274145"/>
+                  <c:y val="-7.4881952092767295E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.86851115760020814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6922959913426201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77654316139115032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89762924152947909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91018133343369745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68727948954881835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97521190264300062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92827772099469685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70825536000318712</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98698577327710058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88868483277325483</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60066505380424828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87038869558194709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95201159052089912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88546835811453373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.58298356114924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5670130535598998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.5484709517144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05603096810606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.0296569249814196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.3130103881652992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8416626792941302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.08584302365486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.3263026977978596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.65628900159499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.4786332562694602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-26.5194684899976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3372234945964898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.257890478334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.4451626822002002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACF9-414F-887C-B1693EC87620}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1642332256"/>
+        <c:axId val="1642754448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1642332256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1642754448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1642754448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1642332256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BB CV^2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5522965879265093E-2"/>
+                  <c:y val="-0.54180555555555554"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.86851115760020814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6922959913426201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77654316139115032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89762924152947909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91018133343369745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68727948954881835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97521190264300062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92827772099469685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70825536000318712</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98698577327710058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88868483277325483</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60066505380424828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87038869558194709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95201159052089912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88546835811453373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.6718040771672094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5895560171469212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157.46412322602009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2272633418111427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.416076482939225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.732162490074771</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0750467828930947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3507411193296486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.369500428568756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0558712599945093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.972688869240628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>703.28220899197561</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.137060652886808</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>203.28744089216733</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9788205424244767</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4067-0846-9239-358D6C3FD15B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="457696448"/>
+        <c:axId val="457698160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="457696448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.55000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457698160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457698160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457696448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> CV^2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8711286089238847E-2"/>
+                  <c:y val="-0.14249307378244386"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.79635461938830854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89851144010307771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79185293510825716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97310795744788225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98027915347934713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98579888511130875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98428433240934399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92858152191349219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8592412801765601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98455845801861741</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86038503006814571</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95459128233903079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>38.141154292004003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6008450108693379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>797.94069129717195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234.08617908695538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.41140026346558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4735101118336251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17346.668103448766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.462860056831182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.497740582084887</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>322.28300272074119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4316027499361352</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.716635853410878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65D2-F447-9AF6-40629F4169F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1420181471"/>
+        <c:axId val="1420269375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1420181471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.75"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1420269375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1420269375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1420181471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9275D91B-D63B-70CA-1634-E61A2435F7F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>798444</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>98012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>414683</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>829</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A438D8BD-905B-C2A6-8179-FA64D2DC1431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>822739</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>425174</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>79514</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6D7E3A-E4F9-6BBE-3F7A-B3147C2E72F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27610</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>185531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>458305</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D49AFC-4051-40B3-A471-8EB37F6A575D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,15 +4540,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A17E36-8C72-CE4D-A865-346A99713ECD}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +4564,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>6.1758525154025499</v>
       </c>
@@ -461,8 +4584,16 @@
       <c r="D2">
         <v>0.86851115760020814</v>
       </c>
+      <c r="E2">
+        <f>C2^2</f>
+        <v>6.6718040771672094</v>
+      </c>
+      <c r="F2">
+        <f>A2^2</f>
+        <v>38.141154292004003</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>-1.6127135551204801</v>
       </c>
@@ -475,8 +4606,16 @@
       <c r="D3">
         <v>0.6922959913426201</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="0">C3^2</f>
+        <v>6.5895560171469212</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="1">A3^2</f>
+        <v>2.6008450108693379</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>-28.247844011484698</v>
       </c>
@@ -489,8 +4628,16 @@
       <c r="D4">
         <v>0.77654316139115032</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>157.46412322602009</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>797.94069129717195</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>-15.299875133051099</v>
       </c>
@@ -503,8 +4650,16 @@
       <c r="D5">
         <v>0.89762924152947909</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.2272633418111427</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>234.08617908695538</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10.602424263510001</v>
       </c>
@@ -517,8 +4672,16 @@
       <c r="D6">
         <v>0.91018133343369745</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>49.416076482939225</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>112.41140026346558</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>-2.5443093585162999</v>
       </c>
@@ -531,8 +4694,16 @@
       <c r="D7">
         <v>0.68727948954881835</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>86.732162490074771</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>6.4735101118336251</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>131.70675040956999</v>
       </c>
@@ -545,8 +4716,16 @@
       <c r="D8">
         <v>0.97521190264300062</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8.0750467828930947</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>17346.668103448766</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5.0460737268525104</v>
       </c>
@@ -559,8 +4738,16 @@
       <c r="D9">
         <v>0.92827772099469685</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.3507411193296486</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>25.462860056831182</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>-9.1377098105644006</v>
       </c>
@@ -573,8 +4760,16 @@
       <c r="D10">
         <v>0.70825536000318712</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>28.369500428568756</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>83.497740582084887</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>-17.9522422755694</v>
       </c>
@@ -587,8 +4782,16 @@
       <c r="D11">
         <v>0.98698577327710058</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>7.0558712599945093</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>322.28300272074119</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>-1.5593597243535999</v>
       </c>
@@ -601,8 +4804,16 @@
       <c r="D12">
         <v>0.88868483277325483</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>41.972688869240628</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.4316027499361352</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>-6.3809588506282404</v>
       </c>
@@ -615,32 +4826,53 @@
       <c r="D13">
         <v>0.60066505380424828</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>703.28220899197561</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>40.716635853410878</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>3.3372234945964898</v>
       </c>
       <c r="D14">
         <v>0.87038869558194709</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>11.137060652886808</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>14.257890478334</v>
       </c>
       <c r="D15">
         <v>0.95201159052089912</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>203.28744089216733</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>-2.4451626822002002</v>
       </c>
       <c r="D16">
         <v>0.88546835811453373</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5.9788205424244767</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>